--- a/ancillary/cand.xlsx
+++ b/ancillary/cand.xlsx
@@ -2,28 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bda885199a49e2e3/Application Materials/Interviews/TechPoint-Xtern-WSA/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bda885199a49e2e3/Application Materials/Interviews/TechPoint-Xtern-WSA/ancillary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="14_{36B50394-8959-4DD1-9231-F23A0781F0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC841267-8625-4C05-9008-E124A9D9376F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_0001255A024F640E62355476585DCE3A87469582" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0121ABFE-8EB9-4670-A7B2-B4F1796ED3E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cand" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cand!$A$1:$Q$64</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="284">
   <si>
     <t>select</t>
   </si>
@@ -40,6 +37,9 @@
     <t>rating_count</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>lat</t>
   </si>
   <si>
@@ -91,7 +91,7 @@
     <t>http://www.subitosoups.com/</t>
   </si>
   <si>
-    <t>Sauce on the SideÂ®</t>
+    <t>Sauce on the Side®</t>
   </si>
   <si>
     <t>130 S Pennsylvania St Suite 2, Indianapolis, IN 46204, United States</t>
@@ -424,18 +424,33 @@
     <t>https://www.dairyqueen.com/us-en/Locator/Detail/?localechange=1&amp;store-id=2762&amp;y_source=1_ODk5NjM5OC03MTUtbG9jYXRpb24ud2Vic2l0ZQ%3D%3D</t>
   </si>
   <si>
+    <t>Kilwins Indianapolis</t>
+  </si>
+  <si>
+    <t>530 Massachusetts Ave #110, Indianapolis, IN 46204, United States</t>
+  </si>
+  <si>
+    <t>5:00 - 9:00 PM</t>
+  </si>
+  <si>
+    <t>4:00 - 10:00 PM</t>
+  </si>
+  <si>
+    <t>1:00 - 10:00 PM</t>
+  </si>
+  <si>
+    <t>1:00 - 9:00 PM</t>
+  </si>
+  <si>
+    <t>http://www.kilwins.com/stores/kilwins-indianapolis</t>
+  </si>
+  <si>
     <t>Sub Zero Nitrogen Ice Cream</t>
   </si>
   <si>
     <t>427 Massachusetts Ave, Indianapolis, IN 46204, United States</t>
   </si>
   <si>
-    <t>1:00 - 9:00 PM</t>
-  </si>
-  <si>
-    <t>1:00 - 10:00 PM</t>
-  </si>
-  <si>
     <t>https://www.subzeroicecream.com/</t>
   </si>
   <si>
@@ -478,6 +493,24 @@
     <t>https://www.globalgiftsft.com/</t>
   </si>
   <si>
+    <t>Indianapolis Zoo Gift Shop</t>
+  </si>
+  <si>
+    <t>1200 W Washington St, Indianapolis, IN 46222, United States</t>
+  </si>
+  <si>
+    <t>9:00 AM - 4:00 PM</t>
+  </si>
+  <si>
+    <t>9:00 AM - 7:00 PM</t>
+  </si>
+  <si>
+    <t>9:00 AM - 9:00 PM</t>
+  </si>
+  <si>
+    <t>https://www.muzemerch.com/partner/indianapolis-zoo</t>
+  </si>
+  <si>
     <t>SHE. EVENT INDY CO - SHEXperience Shoppes</t>
   </si>
   <si>
@@ -559,18 +592,6 @@
     <t>Indianapolis Zoo</t>
   </si>
   <si>
-    <t>1200 W Washington St, Indianapolis, IN 46222, United States</t>
-  </si>
-  <si>
-    <t>9:00 AM - 4:00 PM</t>
-  </si>
-  <si>
-    <t>9:00 AM - 7:00 PM</t>
-  </si>
-  <si>
-    <t>9:00 AM - 9:00 PM</t>
-  </si>
-  <si>
     <t>http://www.indianapoliszoo.com/</t>
   </si>
   <si>
@@ -652,24 +673,6 @@
     <t>http://thewhistlestopin.com/</t>
   </si>
   <si>
-    <t>Burnside Inn</t>
-  </si>
-  <si>
-    <t>314 Massachusetts Ave, Indianapolis, IN 46204, United States</t>
-  </si>
-  <si>
-    <t>5:00 PM - 1:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM - 3:00 AM</t>
-  </si>
-  <si>
-    <t>2:00 PM - 3:00 AM</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pg/BurnsideInnLounge</t>
-  </si>
-  <si>
     <t>Mass Avenue Pub</t>
   </si>
   <si>
@@ -688,15 +691,6 @@
     <t>http://thedugoutindy.com/</t>
   </si>
   <si>
-    <t>Plat 99</t>
-  </si>
-  <si>
-    <t>333 Delaware St, Indianapolis, IN 46204, United States</t>
-  </si>
-  <si>
-    <t>https://www.thealexander.com/dining/plat-99</t>
-  </si>
-  <si>
     <t>Kilroy's Bar &amp; Grill</t>
   </si>
   <si>
@@ -878,16 +872,13 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,375 +887,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1273,216 +909,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1505,44 +960,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1569,32 +1024,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1621,24 +1058,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1650,142 +1069,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1793,74 +1236,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>4.9000000000000004</v>
@@ -1868,8 +1308,8 @@
       <c r="E2">
         <v>296</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
+      <c r="F2" t="s">
+        <v>19</v>
       </c>
       <c r="G2">
         <v>39.767998300000002</v>
@@ -1881,36 +1321,36 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>4.8</v>
@@ -1918,61 +1358,61 @@
       <c r="E3">
         <v>235</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
+      <c r="F3" t="s">
+        <v>19</v>
       </c>
       <c r="G3">
         <v>39.764600299999998</v>
       </c>
       <c r="H3">
-        <v>-86.156713599999904</v>
+        <v>-86.156713599999989</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>4.7</v>
       </c>
       <c r="E4">
-        <v>2962</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>2963</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
       <c r="G4">
         <v>39.764575000000001</v>
@@ -1984,36 +1424,36 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>4.7</v>
@@ -2021,8 +1461,8 @@
       <c r="E5">
         <v>502</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
       <c r="G5">
         <v>39.781106600000001</v>
@@ -2034,48 +1474,48 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>4.5</v>
       </c>
       <c r="E6">
-        <v>4536</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>4538</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>39.773331999999897</v>
+        <v>39.773331999999989</v>
       </c>
       <c r="H6">
         <v>-86.152135299999998</v>
@@ -2084,48 +1524,48 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>4.5</v>
       </c>
       <c r="E7">
-        <v>2378</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>2379</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>39.7719811999999</v>
+        <v>39.771981199999992</v>
       </c>
       <c r="H7">
         <v>-86.153594499999997</v>
@@ -2134,45 +1574,45 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>4.5</v>
       </c>
       <c r="E8">
-        <v>2039</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>2038</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
       <c r="G8">
         <v>39.771632199999999</v>
@@ -2184,45 +1624,45 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
         <v>25</v>
       </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>4.5</v>
       </c>
       <c r="E9">
-        <v>1482</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>1481</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
       </c>
       <c r="G9">
         <v>39.754557900000002</v>
@@ -2234,48 +1674,48 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>4.5</v>
       </c>
       <c r="E10">
-        <v>1148</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>1147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>39.779433399999903</v>
+        <v>39.779433399999988</v>
       </c>
       <c r="H10">
         <v>-86.142927099999994</v>
@@ -2284,48 +1724,48 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>4.5</v>
       </c>
       <c r="E11">
-        <v>654</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>655</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>39.779633299999901</v>
+        <v>39.779633299999993</v>
       </c>
       <c r="H11">
         <v>-86.142538599999995</v>
@@ -2334,45 +1774,45 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>4.5</v>
       </c>
       <c r="E12">
-        <v>469</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>470</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
       </c>
       <c r="G12">
         <v>39.760361899999999</v>
@@ -2384,36 +1824,36 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>4.5</v>
@@ -2421,49 +1861,49 @@
       <c r="E13">
         <v>288</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
+      <c r="F13" t="s">
+        <v>19</v>
       </c>
       <c r="G13">
         <v>39.779927600000001</v>
       </c>
       <c r="H13">
-        <v>-86.172358699999904</v>
+        <v>-86.17235869999999</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>4.4000000000000004</v>
@@ -2471,8 +1911,8 @@
       <c r="E14">
         <v>2766</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
+      <c r="F14" t="s">
+        <v>19</v>
       </c>
       <c r="G14">
         <v>39.765328199999999</v>
@@ -2484,45 +1924,45 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
         <v>75</v>
       </c>
-      <c r="O14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" t="s">
-        <v>74</v>
-      </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>4.4000000000000004</v>
       </c>
       <c r="E15">
-        <v>1275</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>1276</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
       </c>
       <c r="G15">
         <v>39.776719100000001</v>
@@ -2534,36 +1974,36 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>4.4000000000000004</v>
@@ -2571,8 +2011,8 @@
       <c r="E16">
         <v>836</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
+      <c r="F16" t="s">
+        <v>19</v>
       </c>
       <c r="G16">
         <v>39.764551599999997</v>
@@ -2584,36 +2024,36 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>4.9000000000000004</v>
@@ -2621,8 +2061,8 @@
       <c r="E17">
         <v>223</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>86</v>
+      <c r="F17" t="s">
+        <v>87</v>
       </c>
       <c r="G17">
         <v>39.780220300000003</v>
@@ -2631,36 +2071,36 @@
         <v>-86.1418027</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" t="s">
         <v>88</v>
       </c>
-      <c r="O17" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" t="s">
-        <v>87</v>
-      </c>
       <c r="Q17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18">
         <v>4.5999999999999996</v>
@@ -2668,8 +2108,8 @@
       <c r="E18">
         <v>326</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>86</v>
+      <c r="F18" t="s">
+        <v>87</v>
       </c>
       <c r="G18">
         <v>39.772657600000002</v>
@@ -2681,36 +2121,36 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <v>4.5</v>
@@ -2718,49 +2158,49 @@
       <c r="E19">
         <v>1554</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>86</v>
+      <c r="F19" t="s">
+        <v>87</v>
       </c>
       <c r="G19">
-        <v>39.777282199999902</v>
+        <v>39.777282199999988</v>
       </c>
       <c r="H19">
-        <v>-86.145439099999905</v>
+        <v>-86.14543909999999</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20">
         <v>4.5</v>
@@ -2768,55 +2208,55 @@
       <c r="E20">
         <v>577</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>86</v>
+      <c r="F20" t="s">
+        <v>87</v>
       </c>
       <c r="G20">
-        <v>39.7684193999999</v>
+        <v>39.768419399999992</v>
       </c>
       <c r="H20">
         <v>-86.161236099999996</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21">
         <v>4.4000000000000004</v>
       </c>
       <c r="E21">
-        <v>941</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>86</v>
+        <v>942</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
       </c>
       <c r="G21">
         <v>39.754368300000003</v>
@@ -2828,36 +2268,36 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22">
         <v>4.4000000000000004</v>
@@ -2865,96 +2305,96 @@
       <c r="E22">
         <v>225</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>86</v>
+      <c r="F22" t="s">
+        <v>87</v>
       </c>
       <c r="G22">
         <v>39.779759800000001</v>
       </c>
       <c r="H22">
-        <v>-86.143382899999906</v>
+        <v>-86.143382899999992</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23">
         <v>4.3</v>
       </c>
       <c r="E23">
-        <v>567</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>86</v>
+        <v>566</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
       </c>
       <c r="G23">
         <v>39.769635999999998</v>
       </c>
       <c r="H23">
-        <v>-86.153556999999907</v>
+        <v>-86.153556999999992</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>4.3</v>
@@ -2962,8 +2402,8 @@
       <c r="E24">
         <v>457</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>86</v>
+      <c r="F24" t="s">
+        <v>87</v>
       </c>
       <c r="G24">
         <v>39.7672794</v>
@@ -2972,45 +2412,45 @@
         <v>-86.156815899999998</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" t="s">
         <v>118</v>
       </c>
-      <c r="O24" t="s">
-        <v>118</v>
-      </c>
-      <c r="P24" t="s">
-        <v>117</v>
-      </c>
       <c r="Q24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25">
         <v>4.8</v>
       </c>
       <c r="E25">
-        <v>223</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>225</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
       </c>
       <c r="G25">
         <v>39.788227800000001</v>
@@ -3022,36 +2462,36 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N25" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" t="s">
         <v>124</v>
       </c>
-      <c r="O25" t="s">
-        <v>124</v>
-      </c>
-      <c r="P25" t="s">
-        <v>123</v>
-      </c>
       <c r="Q25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D26">
         <v>4.8</v>
@@ -3059,8 +2499,8 @@
       <c r="E26">
         <v>150</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>122</v>
+      <c r="F26" t="s">
+        <v>123</v>
       </c>
       <c r="G26">
         <v>39.7535551</v>
@@ -3072,36 +2512,36 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27">
         <v>4.5999999999999996</v>
@@ -3109,11 +2549,11 @@
       <c r="E27">
         <v>316</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>122</v>
+      <c r="F27" t="s">
+        <v>123</v>
       </c>
       <c r="G27">
-        <v>39.758005799999999</v>
+        <v>39.758005800000007</v>
       </c>
       <c r="H27">
         <v>-86.140014199999996</v>
@@ -3122,134 +2562,134 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>284</v>
-      </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D28">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E28">
-        <v>1182</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>122</v>
+        <v>201</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
       </c>
       <c r="G28">
-        <v>39.773126499999996</v>
+        <v>39.774559600000003</v>
       </c>
       <c r="H28">
-        <v>-86.151332999999994</v>
+        <v>-86.150006599999998</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="P28" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="Q28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>283</v>
+      </c>
       <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E29">
+        <v>1182</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29">
+        <v>39.773126499999996</v>
+      </c>
+      <c r="H29">
+        <v>-86.151333000000008</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" t="s">
         <v>138</v>
       </c>
-      <c r="C29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29">
-        <v>4.8</v>
-      </c>
-      <c r="E29">
-        <v>202</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29">
-        <v>39.779052499999999</v>
-      </c>
-      <c r="H29">
-        <v>-86.142911699999999</v>
-      </c>
-      <c r="J29" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L29" t="s">
-        <v>141</v>
-      </c>
-      <c r="M29" t="s">
-        <v>141</v>
-      </c>
-      <c r="N29" t="s">
-        <v>56</v>
-      </c>
       <c r="O29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>284</v>
-      </c>
       <c r="B30" t="s">
         <v>144</v>
       </c>
@@ -3257,131 +2697,134 @@
         <v>145</v>
       </c>
       <c r="D30">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E30">
-        <v>414</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>140</v>
+        <v>202</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
       </c>
       <c r="G30">
-        <v>39.773385500000003</v>
+        <v>39.779052499999999</v>
       </c>
       <c r="H30">
-        <v>-86.151706199999893</v>
+        <v>-86.142911699999999</v>
       </c>
       <c r="J30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D31">
         <v>4.7</v>
       </c>
       <c r="E31">
-        <v>65</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>140</v>
+        <v>414</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
       </c>
       <c r="G31">
-        <v>39.773546999999901</v>
+        <v>39.773385500000003</v>
       </c>
       <c r="H31">
-        <v>-86.151477</v>
+        <v>-86.151706199999992</v>
       </c>
       <c r="J31" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M31" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N31" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="O31" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D32">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="E32">
-        <v>59</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>153</v>
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
       </c>
       <c r="G32">
-        <v>39.765618699999997</v>
+        <v>39.773546999999994</v>
       </c>
       <c r="H32">
-        <v>-86.159364400000001</v>
+        <v>-86.151477</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P32" t="s">
         <v>155</v>
@@ -3398,25 +2841,25 @@
         <v>158</v>
       </c>
       <c r="D33">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="E33">
-        <v>120</v>
-      </c>
-      <c r="F33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33">
+        <v>39.766826399999999</v>
+      </c>
+      <c r="H33">
+        <v>-86.177278999999999</v>
+      </c>
+      <c r="J33" t="s">
         <v>159</v>
       </c>
-      <c r="G33">
-        <v>39.755669400000002</v>
-      </c>
-      <c r="H33">
-        <v>-86.144089499999893</v>
-      </c>
-      <c r="J33" t="s">
-        <v>160</v>
-      </c>
       <c r="K33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s">
         <v>160</v>
@@ -3425,300 +2868,321 @@
         <v>160</v>
       </c>
       <c r="N33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P33" t="s">
         <v>160</v>
       </c>
       <c r="Q33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D34">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E34">
-        <v>4460</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>164</v>
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>165</v>
       </c>
       <c r="G34">
-        <v>39.766546400000003</v>
+        <v>39.765618699999997</v>
       </c>
       <c r="H34">
-        <v>-86.170785799999905</v>
+        <v>-86.159364400000001</v>
       </c>
       <c r="J34" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D35">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="E35">
-        <v>1591</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>164</v>
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
       </c>
       <c r="G35">
-        <v>39.770589999999999</v>
+        <v>39.755669400000002</v>
       </c>
       <c r="H35">
-        <v>-86.168700599999994</v>
+        <v>-86.144089499999993</v>
       </c>
       <c r="J35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="N35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q35" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D36">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E36">
-        <v>66</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>164</v>
+        <v>4461</v>
+      </c>
+      <c r="F36" t="s">
+        <v>176</v>
       </c>
       <c r="G36">
-        <v>39.767441599999998</v>
+        <v>39.766546400000003</v>
       </c>
       <c r="H36">
-        <v>-86.170236199999906</v>
+        <v>-86.17078579999999</v>
       </c>
       <c r="J36" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K36" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M36" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N36" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="O36" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q36" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D37">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E37">
-        <v>171</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>175</v>
+        <v>1591</v>
+      </c>
+      <c r="F37" t="s">
+        <v>176</v>
       </c>
       <c r="G37">
-        <v>39.768005000000002</v>
+        <v>39.770589999999999</v>
       </c>
       <c r="H37">
-        <v>-86.180634699999999</v>
+        <v>-86.168700599999994</v>
+      </c>
+      <c r="J37" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37" t="s">
+        <v>177</v>
+      </c>
+      <c r="M37" t="s">
+        <v>177</v>
+      </c>
+      <c r="N37" t="s">
+        <v>177</v>
+      </c>
+      <c r="O37" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" t="s">
+        <v>177</v>
       </c>
       <c r="Q37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D38">
         <v>4.5</v>
       </c>
       <c r="E38">
-        <v>16726</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>175</v>
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
+        <v>176</v>
       </c>
       <c r="G38">
-        <v>39.767574599999897</v>
+        <v>39.767441599999998</v>
       </c>
       <c r="H38">
-        <v>-86.179626200000001</v>
+        <v>-86.170236199999991</v>
       </c>
       <c r="J38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D39">
         <v>4.8</v>
       </c>
       <c r="E39">
-        <v>4525</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
       </c>
       <c r="G39">
-        <v>39.764744200000003</v>
+        <v>39.768005000000002</v>
       </c>
       <c r="H39">
-        <v>-86.168674299999907</v>
-      </c>
-      <c r="J39" t="s">
-        <v>186</v>
-      </c>
-      <c r="K39" t="s">
-        <v>186</v>
-      </c>
-      <c r="L39" t="s">
-        <v>186</v>
-      </c>
-      <c r="M39" t="s">
-        <v>186</v>
-      </c>
-      <c r="N39" t="s">
-        <v>186</v>
-      </c>
-      <c r="O39" t="s">
-        <v>186</v>
-      </c>
-      <c r="P39" t="s">
-        <v>186</v>
+        <v>-86.180634700000013</v>
       </c>
       <c r="Q39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D40">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="E40">
-        <v>12357</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>185</v>
+        <v>16732</v>
+      </c>
+      <c r="F40" t="s">
+        <v>187</v>
       </c>
       <c r="G40">
-        <v>39.760100699999903</v>
+        <v>39.767574599999989</v>
       </c>
       <c r="H40">
-        <v>-86.163887699999904</v>
+        <v>-86.179626200000001</v>
+      </c>
+      <c r="J40" t="s">
+        <v>159</v>
+      </c>
+      <c r="K40" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" t="s">
+        <v>160</v>
+      </c>
+      <c r="N40" t="s">
+        <v>161</v>
+      </c>
+      <c r="O40" t="s">
+        <v>161</v>
+      </c>
+      <c r="P40" t="s">
+        <v>160</v>
       </c>
       <c r="Q40" t="s">
         <v>190</v>
@@ -3732,403 +3196,376 @@
         <v>192</v>
       </c>
       <c r="D41">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="E41">
-        <v>9593</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>185</v>
+        <v>4525</v>
+      </c>
+      <c r="F41" t="s">
+        <v>193</v>
       </c>
       <c r="G41">
-        <v>39.764043399999998</v>
+        <v>39.764744200000003</v>
       </c>
       <c r="H41">
-        <v>-86.155536699999999</v>
+        <v>-86.168674299999992</v>
+      </c>
+      <c r="J41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K41" t="s">
+        <v>194</v>
+      </c>
+      <c r="L41" t="s">
+        <v>194</v>
+      </c>
+      <c r="M41" t="s">
+        <v>194</v>
+      </c>
+      <c r="N41" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" t="s">
+        <v>194</v>
+      </c>
+      <c r="P41" t="s">
+        <v>194</v>
       </c>
       <c r="Q41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D42">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="E42">
-        <v>280</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>185</v>
+        <v>12370</v>
+      </c>
+      <c r="F42" t="s">
+        <v>193</v>
       </c>
       <c r="G42">
-        <v>39.771126299999999</v>
+        <v>39.760100699999988</v>
       </c>
       <c r="H42">
-        <v>-86.177880000000002</v>
+        <v>-86.163887699999989</v>
       </c>
       <c r="Q42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D43">
         <v>4.5999999999999996</v>
       </c>
       <c r="E43">
-        <v>329</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>199</v>
+        <v>9593</v>
+      </c>
+      <c r="F43" t="s">
+        <v>193</v>
       </c>
       <c r="G43">
-        <v>39.764820299999997</v>
+        <v>39.764043399999998</v>
       </c>
       <c r="H43">
-        <v>-86.159820799999906</v>
-      </c>
-      <c r="J43" t="s">
-        <v>200</v>
-      </c>
-      <c r="K43" t="s">
-        <v>200</v>
-      </c>
-      <c r="L43" t="s">
-        <v>200</v>
-      </c>
-      <c r="M43" t="s">
-        <v>200</v>
-      </c>
-      <c r="N43" t="s">
+        <v>-86.155536699999999</v>
+      </c>
+      <c r="Q43" t="s">
         <v>201</v>
-      </c>
-      <c r="O43" t="s">
-        <v>201</v>
-      </c>
-      <c r="P43" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" t="s">
         <v>203</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E44">
+        <v>279</v>
+      </c>
+      <c r="F44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44">
+        <v>39.771126299999999</v>
+      </c>
+      <c r="H44">
+        <v>-86.177880000000016</v>
+      </c>
+      <c r="Q44" t="s">
         <v>204</v>
-      </c>
-      <c r="D44">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E44">
-        <v>260</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G44">
-        <v>39.7616516</v>
-      </c>
-      <c r="H44">
-        <v>-86.159925799999996</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>43</v>
-      </c>
-      <c r="K44" t="s">
-        <v>43</v>
-      </c>
-      <c r="L44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M44" t="s">
-        <v>205</v>
-      </c>
-      <c r="N44" t="s">
-        <v>206</v>
-      </c>
-      <c r="O44" t="s">
-        <v>207</v>
-      </c>
-      <c r="P44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D45">
         <v>4.5999999999999996</v>
       </c>
       <c r="E45">
-        <v>237</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>199</v>
+        <v>329</v>
+      </c>
+      <c r="F45" t="s">
+        <v>207</v>
       </c>
       <c r="G45">
-        <v>39.771834799999901</v>
+        <v>39.764820299999997</v>
       </c>
       <c r="H45">
-        <v>-86.153899899999999</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
+        <v>-86.159820799999991</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="L45" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="M45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="Q45" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D46">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E46">
-        <v>688</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>199</v>
+        <v>260</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
       </c>
       <c r="G46">
-        <v>39.777017000000001</v>
+        <v>39.761651600000008</v>
       </c>
       <c r="H46">
-        <v>-86.145821999999995</v>
+        <v>-86.159925799999996</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="L46" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="M46" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="N46" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O46" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="Q46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" t="s">
         <v>218</v>
-      </c>
-      <c r="C47" t="s">
-        <v>219</v>
       </c>
       <c r="D47">
         <v>4.5</v>
       </c>
       <c r="E47">
-        <v>685</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>199</v>
+        <v>688</v>
+      </c>
+      <c r="F47" t="s">
+        <v>207</v>
       </c>
       <c r="G47">
-        <v>39.758238899999903</v>
+        <v>39.777017000000001</v>
       </c>
       <c r="H47">
-        <v>-86.146436100000003</v>
+        <v>-86.145821999999995</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="K47" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M47" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="N47" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O47" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="P47" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="Q47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" t="s">
         <v>221</v>
-      </c>
-      <c r="C48" t="s">
-        <v>222</v>
       </c>
       <c r="D48">
         <v>4.5</v>
       </c>
       <c r="E48">
-        <v>231</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>199</v>
+        <v>685</v>
+      </c>
+      <c r="F48" t="s">
+        <v>207</v>
       </c>
       <c r="G48">
-        <v>39.7617627999999</v>
+        <v>39.758238899999988</v>
       </c>
       <c r="H48">
-        <v>-86.154335099999997</v>
+        <v>-86.146436100000003</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="K48" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="L48" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="N48" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="O48" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P48" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="Q48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" t="s">
         <v>224</v>
-      </c>
-      <c r="C49" t="s">
-        <v>225</v>
       </c>
       <c r="D49">
         <v>4.3</v>
       </c>
       <c r="E49">
-        <v>3292</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>199</v>
+        <v>3291</v>
+      </c>
+      <c r="F49" t="s">
+        <v>207</v>
       </c>
       <c r="G49">
-        <v>39.764075099999999</v>
+        <v>39.764075100000007</v>
       </c>
       <c r="H49">
-        <v>-86.158020299999905</v>
+        <v>-86.15802029999999</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L49" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" t="s">
         <v>227</v>
-      </c>
-      <c r="C50" t="s">
-        <v>228</v>
       </c>
       <c r="D50">
         <v>4.3</v>
@@ -4136,11 +3573,11 @@
       <c r="E50">
         <v>1038</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>199</v>
+      <c r="F50" t="s">
+        <v>207</v>
       </c>
       <c r="G50">
-        <v>39.766944899999999</v>
+        <v>39.766944900000013</v>
       </c>
       <c r="H50">
         <v>-86.163792099999995</v>
@@ -4149,36 +3586,36 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" t="s">
         <v>230</v>
-      </c>
-      <c r="C51" t="s">
-        <v>231</v>
       </c>
       <c r="D51">
         <v>4.8</v>
@@ -4186,93 +3623,93 @@
       <c r="E51">
         <v>139</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>232</v>
+      <c r="F51" t="s">
+        <v>231</v>
       </c>
       <c r="G51">
         <v>39.777484299999998</v>
       </c>
       <c r="H51">
-        <v>-86.145732299999906</v>
+        <v>-86.145732299999992</v>
       </c>
       <c r="J51" t="s">
+        <v>232</v>
+      </c>
+      <c r="K51" t="s">
+        <v>232</v>
+      </c>
+      <c r="L51" t="s">
+        <v>232</v>
+      </c>
+      <c r="M51" t="s">
+        <v>232</v>
+      </c>
+      <c r="N51" t="s">
         <v>233</v>
       </c>
-      <c r="K51" t="s">
-        <v>233</v>
-      </c>
-      <c r="L51" t="s">
-        <v>233</v>
-      </c>
-      <c r="M51" t="s">
-        <v>233</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" t="s">
         <v>234</v>
-      </c>
-      <c r="O51" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
         <v>236</v>
-      </c>
-      <c r="C52" t="s">
-        <v>237</v>
       </c>
       <c r="D52">
         <v>4.8</v>
       </c>
       <c r="E52">
-        <v>92</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>232</v>
+        <v>93</v>
+      </c>
+      <c r="F52" t="s">
+        <v>231</v>
       </c>
       <c r="G52">
-        <v>39.775507999999903</v>
+        <v>39.775507999999988</v>
       </c>
       <c r="H52">
         <v>-86.166269999999997</v>
       </c>
       <c r="J52" t="s">
+        <v>237</v>
+      </c>
+      <c r="K52" t="s">
+        <v>237</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>237</v>
+      </c>
+      <c r="N52" t="s">
+        <v>237</v>
+      </c>
+      <c r="O52" t="s">
+        <v>237</v>
+      </c>
+      <c r="P52" t="s">
         <v>238</v>
       </c>
-      <c r="K52" t="s">
-        <v>238</v>
-      </c>
-      <c r="L52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" t="s">
-        <v>238</v>
-      </c>
-      <c r="N52" t="s">
-        <v>238</v>
-      </c>
-      <c r="O52" t="s">
-        <v>238</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>239</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" t="s">
         <v>241</v>
-      </c>
-      <c r="C53" t="s">
-        <v>242</v>
       </c>
       <c r="D53">
         <v>4.8</v>
@@ -4280,8 +3717,8 @@
       <c r="E53">
         <v>43</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>232</v>
+      <c r="F53" t="s">
+        <v>231</v>
       </c>
       <c r="G53">
         <v>39.782924199999997</v>
@@ -4290,39 +3727,39 @@
         <v>-86.169850999999994</v>
       </c>
       <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>148</v>
+      </c>
+      <c r="L53" t="s">
+        <v>148</v>
+      </c>
+      <c r="M53" t="s">
+        <v>148</v>
+      </c>
+      <c r="N53" t="s">
+        <v>148</v>
+      </c>
+      <c r="O53" t="s">
         <v>20</v>
       </c>
-      <c r="K53" t="s">
-        <v>142</v>
-      </c>
-      <c r="L53" t="s">
-        <v>142</v>
-      </c>
-      <c r="M53" t="s">
-        <v>142</v>
-      </c>
-      <c r="N53" t="s">
-        <v>142</v>
-      </c>
-      <c r="O53" t="s">
-        <v>19</v>
-      </c>
       <c r="P53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" t="s">
         <v>244</v>
-      </c>
-      <c r="C54" t="s">
-        <v>245</v>
       </c>
       <c r="D54">
         <v>4.7</v>
@@ -4330,46 +3767,46 @@
       <c r="E54">
         <v>2372</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>232</v>
+      <c r="F54" t="s">
+        <v>231</v>
       </c>
       <c r="G54">
         <v>39.773360699999998</v>
       </c>
       <c r="H54">
-        <v>-86.156950799999905</v>
+        <v>-86.15695079999999</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L54" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M54" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N54" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="O54" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" t="s">
         <v>247</v>
-      </c>
-      <c r="C55" t="s">
-        <v>248</v>
       </c>
       <c r="D55">
         <v>4.7</v>
@@ -4377,46 +3814,46 @@
       <c r="E55">
         <v>284</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>232</v>
+      <c r="F55" t="s">
+        <v>231</v>
       </c>
       <c r="G55">
         <v>39.767310999999999</v>
       </c>
       <c r="H55">
-        <v>-86.160074299999906</v>
+        <v>-86.160074299999991</v>
       </c>
       <c r="J55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P55" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q55" t="s">
         <v>249</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" t="s">
         <v>251</v>
-      </c>
-      <c r="C56" t="s">
-        <v>252</v>
       </c>
       <c r="D56">
         <v>4.7</v>
@@ -4424,99 +3861,99 @@
       <c r="E56">
         <v>75</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>232</v>
+      <c r="F56" t="s">
+        <v>231</v>
       </c>
       <c r="G56">
-        <v>39.772222199999902</v>
+        <v>39.772222199999987</v>
       </c>
       <c r="H56">
         <v>-86.1477778</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M56" t="s">
+        <v>252</v>
+      </c>
+      <c r="N56" t="s">
+        <v>252</v>
+      </c>
+      <c r="O56" t="s">
+        <v>252</v>
+      </c>
+      <c r="P56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" t="s">
         <v>253</v>
-      </c>
-      <c r="N56" t="s">
-        <v>253</v>
-      </c>
-      <c r="O56" t="s">
-        <v>253</v>
-      </c>
-      <c r="P56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" t="s">
         <v>255</v>
-      </c>
-      <c r="C57" t="s">
-        <v>256</v>
       </c>
       <c r="D57">
         <v>4.5999999999999996</v>
       </c>
       <c r="E57">
-        <v>3335</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>232</v>
+        <v>3337</v>
+      </c>
+      <c r="F57" t="s">
+        <v>231</v>
       </c>
       <c r="G57">
-        <v>39.768391899999898</v>
+        <v>39.76839189999999</v>
       </c>
       <c r="H57">
         <v>-86.169501299999993</v>
       </c>
       <c r="J57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" t="s">
         <v>258</v>
-      </c>
-      <c r="C58" t="s">
-        <v>259</v>
       </c>
       <c r="D58">
         <v>4.5999999999999996</v>
@@ -4524,46 +3961,46 @@
       <c r="E58">
         <v>1657</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>232</v>
+      <c r="F58" t="s">
+        <v>231</v>
       </c>
       <c r="G58">
-        <v>39.768575399999897</v>
+        <v>39.768575399999989</v>
       </c>
       <c r="H58">
-        <v>-86.167791499999893</v>
+        <v>-86.167791499999993</v>
       </c>
       <c r="J58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" t="s">
         <v>261</v>
-      </c>
-      <c r="C59" t="s">
-        <v>262</v>
       </c>
       <c r="D59">
         <v>4.4000000000000004</v>
@@ -4571,8 +4008,8 @@
       <c r="E59">
         <v>418</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>232</v>
+      <c r="F59" t="s">
+        <v>231</v>
       </c>
       <c r="G59">
         <v>39.768070399999999</v>
@@ -4581,45 +4018,45 @@
         <v>-86.171480299999999</v>
       </c>
       <c r="J59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" t="s">
         <v>264</v>
-      </c>
-      <c r="C60" t="s">
-        <v>265</v>
       </c>
       <c r="D60">
         <v>4.8</v>
       </c>
       <c r="E60">
-        <v>1861</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>266</v>
+        <v>1863</v>
+      </c>
+      <c r="F60" t="s">
+        <v>265</v>
       </c>
       <c r="G60">
         <v>39.763946900000001</v>
@@ -4628,48 +4065,48 @@
         <v>-86.158445299999997</v>
       </c>
       <c r="J60" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N60" t="s">
+        <v>266</v>
+      </c>
+      <c r="O60" t="s">
         <v>267</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q60" t="s">
         <v>268</v>
-      </c>
-      <c r="P60" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B61" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" t="s">
         <v>270</v>
-      </c>
-      <c r="C61" t="s">
-        <v>271</v>
       </c>
       <c r="D61">
         <v>4.7</v>
       </c>
       <c r="E61">
-        <v>8028</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>266</v>
+        <v>8030</v>
+      </c>
+      <c r="F61" t="s">
+        <v>265</v>
       </c>
       <c r="G61">
         <v>39.768545899999999</v>
@@ -4678,39 +4115,39 @@
         <v>-86.158043699999993</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N61" t="s">
+        <v>271</v>
+      </c>
+      <c r="O61" t="s">
+        <v>271</v>
+      </c>
+      <c r="P61" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q61" t="s">
         <v>272</v>
-      </c>
-      <c r="O61" t="s">
-        <v>272</v>
-      </c>
-      <c r="P61" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" t="s">
         <v>274</v>
-      </c>
-      <c r="C62" t="s">
-        <v>275</v>
       </c>
       <c r="D62">
         <v>4.7</v>
@@ -4718,8 +4155,8 @@
       <c r="E62">
         <v>2288</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>266</v>
+      <c r="F62" t="s">
+        <v>265</v>
       </c>
       <c r="G62">
         <v>39.775203599999998</v>
@@ -4728,36 +4165,36 @@
         <v>-86.165167999999994</v>
       </c>
       <c r="J62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q62" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" t="s">
         <v>277</v>
-      </c>
-      <c r="C63" t="s">
-        <v>278</v>
       </c>
       <c r="D63">
         <v>4.7</v>
@@ -4765,46 +4202,46 @@
       <c r="E63">
         <v>842</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>266</v>
+      <c r="F63" t="s">
+        <v>265</v>
       </c>
       <c r="G63">
-        <v>39.770234599999903</v>
+        <v>39.770234599999988</v>
       </c>
       <c r="H63">
-        <v>-86.165541399999995</v>
+        <v>-86.165541400000009</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" t="s">
         <v>280</v>
-      </c>
-      <c r="C64" t="s">
-        <v>281</v>
       </c>
       <c r="D64">
         <v>4.5999999999999996</v>
@@ -4812,8 +4249,8 @@
       <c r="E64">
         <v>224</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>266</v>
+      <c r="F64" t="s">
+        <v>265</v>
       </c>
       <c r="G64">
         <v>39.768747500000003</v>
@@ -4822,32 +4259,31 @@
         <v>-86.162642000000005</v>
       </c>
       <c r="J64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O64" t="s">
+        <v>281</v>
+      </c>
+      <c r="P64" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" t="s">
         <v>282</v>
       </c>
-      <c r="P64" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>283</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>